--- a/src/org/hbrs/se1/ws22/uebung5/TestCase v1.6.xlsx
+++ b/src/org/hbrs/se1/ws22/uebung5/TestCase v1.6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin Stein\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin Stein\IdeaProjects\WS22-SE1\src\org\hbrs\se1\ws22\uebung5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A41A3-7331-42A4-B0FC-CA7120AEC641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F045715-D4C2-4B9A-9D2A-9729CB517BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,9 +342,6 @@
     <t>Peter Lustig</t>
   </si>
   <si>
-    <t>Stellenanzeige aus Liste auswählen</t>
-  </si>
-  <si>
     <t>Negativtest</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>Die Fehlermeldung wird geschlossen, das Textfeld enthält die bereits eingetragenen Daten, das Betreff-Feld ist rot umrandet.</t>
+  </si>
+  <si>
+    <t>Testcase Stellenanzeigen suchen erfolgreich absolviert;Stellenanzeige aus Liste auswählen</t>
   </si>
 </sst>
 </file>
@@ -878,6 +878,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,9 +890,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1199,11 +1199,11 @@
       <c r="C4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="27"/>
@@ -1212,12 +1212,12 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="3:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="32" t="s">
@@ -1826,7 +1826,7 @@
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1844,7 +1844,7 @@
       <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="50" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1885,7 +1885,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1917,15 +1917,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="23">
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="24"/>
@@ -1936,10 +1936,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="24"/>
@@ -1950,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="24"/>
